--- a/data/test_data.xlsx
+++ b/data/test_data.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\.jenkins\workspace\station_mapp_zfb\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20130" windowHeight="7590" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7860" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
@@ -36,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="56">
   <si>
     <t>=====test_202_详细描述和联系方式都为空给出提示=====</t>
   </si>
@@ -146,12 +141,33 @@
     <t>+1天</t>
   </si>
   <si>
+    <t>K823</t>
+  </si>
+  <si>
+    <t>信阳</t>
+  </si>
+  <si>
+    <t>新县</t>
+  </si>
+  <si>
+    <t>success_车次变更</t>
+  </si>
+  <si>
+    <t>K822</t>
+  </si>
+  <si>
+    <t>潢川</t>
+  </si>
+  <si>
     <t>武汉</t>
   </si>
   <si>
     <t>北京</t>
   </si>
   <si>
+    <t>小时</t>
+  </si>
+  <si>
     <t>天津</t>
   </si>
   <si>
@@ -180,42 +196,6 @@
   </si>
   <si>
     <t>很抱歉，按您的查询条件，当前未找到从武汉到武汉的列车</t>
-  </si>
-  <si>
-    <t>小时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>K823</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>success_车次变更</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>信阳</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>新县</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>K822</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>K823</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>潢川</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>K823</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>西安</t>
@@ -224,8 +204,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,28 +220,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -263,9 +566,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -277,26 +822,70 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -554,31 +1143,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="50.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="41.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="42.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="29" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="50.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="41.75" style="3" customWidth="1"/>
+    <col min="3" max="3" width="24.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="42.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="29" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -592,7 +1181,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -608,7 +1197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -624,7 +1213,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -637,7 +1226,7 @@
       <c r="D4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F4" t="s">
@@ -645,21 +1234,22 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="2" width="10.625" customWidth="1"/>
     <col min="3" max="3" width="12.5" customWidth="1"/>
@@ -668,17 +1258,17 @@
     <col min="6" max="6" width="25.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="4">
+      <c r="B1" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -688,17 +1278,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="2">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -708,17 +1298,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="2">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -728,17 +1318,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -748,17 +1338,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="2">
         <v>4</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -768,17 +1358,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:6">
+      <c r="A6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="2">
         <v>1</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -788,17 +1378,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="2">
         <v>2</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -808,7 +1398,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
@@ -828,47 +1418,47 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -876,7 +1466,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -885,21 +1475,22 @@
       <c r="F12" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="4" width="9" style="1"/>
     <col min="5" max="5" width="19.75" style="1" customWidth="1"/>
@@ -907,18 +1498,18 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>16</v>
@@ -927,18 +1518,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>16</v>
@@ -947,18 +1538,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C3" s="1">
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>16</v>
@@ -967,18 +1558,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C4" s="1">
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>16</v>
@@ -987,184 +1578,186 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C3" s="1">
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C4" s="1">
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>